--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3660A87-CD78-3B49-8885-51F3CEB9B6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426F8347-6296-E943-8DD7-58F33CFF32CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="880" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="740" yWindow="2720" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Happy to have figured it out!</t>
+  </si>
+  <si>
+    <t>&lt;12:24&gt;</t>
+  </si>
+  <si>
+    <t>&lt;My team and I&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Determining our group project&gt;</t>
+  </si>
+  <si>
+    <t>&lt;After a lot of searching we were able to find an approved project&gt;</t>
+  </si>
+  <si>
+    <t>&lt;I learned that there is more to searching for a good open source project than just reading about the concept and thinking "This sounds good". We want to consider something that has a good amount of recent maintenance, has a substantial, but effective amount of LOC, and works properly. &gt;</t>
+  </si>
+  <si>
+    <t>&lt;Frustrated with all of the preliminary rejections of project suggestions (we found some interesting ones!), but ultimately happy to be able to learn more about this process&gt;</t>
   </si>
 </sst>
 </file>
@@ -282,11 +300,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -609,7 +627,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,24 +636,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -663,7 +681,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1"/>
@@ -749,27 +767,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4D71E-E3E4-8B42-ABF0-D5A33BDCBE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E49BE-EE1C-3A42-A2FC-87ABF47D053C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>&lt;Happy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;02/05/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Working on assignment 2 for our group project&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We were able to delve deeper into our system and find two features we felt were essential. We created a report of these two features with some image examples.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;This assignment helped us to really hone in on our reverse-engineering skills acquired thus far. We used a top down method to determine features we believed would be essential. There was a lot of conversation among my team members as to whether extended components of these features should be included or not, which was good&gt;</t>
+  </si>
+  <si>
+    <t>&lt;A little sleepy, but nothing some coffee cant fix :]&gt;</t>
   </si>
 </sst>
 </file>
@@ -662,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -904,14 +919,28 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+    <row r="16" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9792764-F297-0C40-95D3-C9EE0556355A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC8533-30F0-F746-8EA8-DB3F6C78F6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>&lt;tired, it was a long day!&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2/19/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;hw 2 and 3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;worked on fixing our hw 2 and started hw 3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We adjusted our hw 2 per Kaj's suggestions to have a more organized structure as well as more relevant figures (UML, Sequence, etc) vs just snippets of source code. This made our assignment look much cleaner. For hw3 we began considering potential stakeholders and also some open issues we potentially could solve since we have been working on the system as of late.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;happy&gt;</t>
   </si>
 </sst>
 </file>
@@ -712,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1046,14 +1061,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+    <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC8533-30F0-F746-8EA8-DB3F6C78F6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D377A02-94A8-E44E-BFE1-5718AB913426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -244,6 +244,42 @@
   </si>
   <si>
     <t>&lt;happy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2/20/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;learned a few more key expert practices and some more things to consider when working on our system such as social context (PRs and Issues)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Good lecture, guest speakers were also very interesting and it was nice to see software engineering being practice in different industries!&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2/26/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Work on HW 4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Worked on our HW which focused on our system's architecture as well as social context i.e PR and Issues&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Learned a lot more about our system, mostly trying to define how our architecture can be seen as set up. The PR and Issues we looked at were interesting and some had relevance to parts of the sytstem we already studied&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tired&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2/27/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We went over our HW4 and discussed a few more key expert practices. We also got to listen to an astronomer and how software is integrated into his daily work&gt;</t>
+  </si>
+  <si>
+    <t>&lt;More expert practices to consider when working on systems. Speaker was very interesting and reminded me that software is becoming prominent in every industry in some way!&gt; </t>
+  </si>
+  <si>
+    <t>&lt;1:00-5:00 | 7:00-8:30&gt;</t>
   </si>
 </sst>
 </file>
@@ -727,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1084,32 +1120,74 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+    <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D377A02-94A8-E44E-BFE1-5718AB913426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045B671E-3B01-8C40-88B9-56C4F097899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -280,6 +280,42 @@
   </si>
   <si>
     <t>&lt;1:00-5:00 | 7:00-8:30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/3/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;12:00-5:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Work on HW 5</t>
+  </si>
+  <si>
+    <t>&lt;3/2/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5:00-9:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Work on revising HW 3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We were able to find and update our Key Developers section to resolve questions about our report, per Kaj's suggestions&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We learned that there is more to Key Developers than just being someone who works on a system's source code. These can be developers of any aspect of the system including visual aspects such as the logo of the product. Additionally, we were able to delve deeper into our analysis of key developes by looking for documentation such as the README of our system.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sleepy, it was a rainy Sunday&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We were able to start working on finding design patterns and a simple issue for our system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;There are many different design patterns found within our system. Upon closer analysis we were able to determine some of the patterns included: factory, builder, module, listener/observer, and strategy patterns. For our issue we were "lucky" to find potential typo errors in annotations and suggest an update to these issues. Our next issue will hopefully be more complex for next week's homework&gt;</t>
+  </si>
+  <si>
+    <t>&lt;somewhat stressed, a lot of different projects/concepts from all courses being needed to understand&gt;</t>
   </si>
 </sst>
 </file>
@@ -763,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1189,23 +1225,51 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+    <row r="24" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045B671E-3B01-8C40-88B9-56C4F097899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FA5C8-3B67-2C41-A9B9-BE353B8CFEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>&lt;somewhat stressed, a lot of different projects/concepts from all courses being needed to understand&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/5/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3 more key expert practices, and went over last weeks homework. Talked about testing as a means of understanding code. Guest speakers had interesting coding project to practice with.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Interesting to consider test cases to understand a system. There is a lot of information we can learn from doing these. The guest speakers were very interesting. I enjoyed the practical aspect of their presentatin allowing us to practice reverse engineering in a real life scenario&gt;</t>
   </si>
 </sst>
 </file>
@@ -799,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,14 +1280,28 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+    <row r="26" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>

--- a/diaries/diary-marc-andrada.xlsx
+++ b/diaries/diary-marc-andrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FA5C8-3B67-2C41-A9B9-BE353B8CFEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10433490-4343-194E-B8F2-F5532D215E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -81,9 +81,6 @@
     <t>&lt;6:04&gt;</t>
   </si>
   <si>
-    <t>Installation was a little difficult, I actually was running Windows on a Mac, so I decided to overhaul everything and just work with my Osx system. This allowed me to cleanly install everything and essentially start "fresh"</t>
-  </si>
-  <si>
     <t>Was able to install everything and write my first entry!</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>&lt;When we look at larger systems it can get overwhelming trying to find what we need. Luckily we have some tools to help us such as UML diagrams&gt;</t>
   </si>
   <si>
-    <t>&lt;Not really feeling one way or another. Just cranking through the assignment&gt;</t>
-  </si>
-  <si>
     <t>&lt;2:00-5:00&gt;</t>
   </si>
   <si>
@@ -325,6 +319,105 @@
   </si>
   <si>
     <t>&lt;Interesting to consider test cases to understand a system. There is a lot of information we can learn from doing these. The guest speakers were very interesting. I enjoyed the practical aspect of their presentatin allowing us to practice reverse engineering in a real life scenario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/11/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Work on HW 6&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Made some efforts to look into a new issue for us to try and resolve and send a PR for Glide. Also found some existing test cases within our system's directory.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Learned more about our system, was glad to see the test cases utilized tools we learned in our test/debug course. Namely they use JUnit and Mockito for some of the test cases. Finding a solvable issue has been a bit tougher, but hopefully we can!&gt;</t>
+  </si>
+  <si>
+    <t>&lt;neutral, just trying to finish a lot of small projects/assignments for all of my classes&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/12/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;12:00-4:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5:00-7:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Last lecture for our class :[ We learned 3 more KEP for a total of 21. We also learned some advanced, miscellaneous topics. No guest speaker&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Even though there seem to be a lot of KEP to think aobut, they all feel somewhat related in their meaning. I think considering these practices will help us when we begin to work on other large ambiguous systems and make the scary parts just a little less scary&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bittersweet, sad to end the course, but glad to have learned something new&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/14/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;12:00-8:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/13/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Worked on hw4 resubmit&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Was able to relook at our definied architecture of our glide system and create a model that better fit it. Also updated our report to look more organized and clean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When doing these assignments, we weren't very sure how to write them out in a neat way because there is so many things to talk about. After carefully looking and organizing I was able to clean up the report and make it look more professionally done (something we can be proud of/show to employers/etc). We also gained new perspective into our system, by changing our architecture from being forced into the MVC style to a style more closely related to a layered pattern. Overall I got a lot more practice reading through and understanding our system&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a bit tired, took a while to really hash out the details of the system. Now I'm hungry, time to eat!&gt;</t>
+  </si>
+  <si>
+    <t>&lt;12:00-10:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;6:00-10:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Installation was a little difficult, I actually was running Windows on a Mac, so I decided to overhaul everything and just work with my Osx system. This allowed me to cleanly install everything and essentially start "fresh"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Found and wrote about existing test cases within our system. Developed 3 more test cases. Working on our second issue/PR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;This assignment was pretty neat because we had taken simultaneously a testing and debugging class. Using some of the tools from that class that we learned we were able to uncover some test cases and possible places to add more. It felt like things were coming aronud full circle and that what we were learning was very practical. Specifically we saw JUnit testing and Mockito mocks. Instead of freaking out because it's new syntax we were a bit familiar with the tests, which was awesome&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Neutral: Not really feeling one way or another. Just cranking through the assignment&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3/16/2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Wrote our report on our current issue and trying to get a PR approved. Split our report into three sections per Andre and Kaj's requests&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Finding a more complex issue is well, complex. Our first issue was fixing annotations so we needed to step up our contributions. We ultimately found something, which although was still a small fix, could potentially be meaningful to the overall system. The PR process is a bit complex as well because Glide requires us to consent to their continuous integration testing, etc before we can officially send a PR. Overall a good learning experience as a whole.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;happy, a bit lonley because of all the isolation due to COVID 19, but the internet is awesome for making friends/talking to people!&gt;</t>
+  </si>
+  <si>
+    <t>&lt;8:00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Final Reflection&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Just wanted to reflect on the past quarter and all of the work we have done&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When I first entered this course I was a bit hesitant because I knew we would have to read into large systems and I had no experience doing so. However, through many weeks of learning key principles and best practices, I was able to become more confident in the skills of "reading code". The guest speakers were awesome and inspiring. Definitely needed to see some people in my potential line of work and it was amazing to see so many different areas we can practice software engineering. Overall this class was great, I learned a lot of practical skills and had some fun.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sad the course is over, happy it is spring break, excited to keep learning in this program with my cohort!&gt;</t>
   </si>
 </sst>
 </file>
@@ -808,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,111 +1027,111 @@
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1052,310 +1145,394 @@
     </row>
     <row r="16" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="G23" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="E25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="G26" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
